--- a/R/data_manipulated/010422_Sorption_BC_mix.xlsx
+++ b/R/data_manipulated/010422_Sorption_BC_mix.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ci</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cw</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>log_Cw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_Cs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Compound</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Biochar</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>isotherm_binary</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SoilLogic</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>mixLogic</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>isothermLogic</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cs</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Cw</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Kd</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Ci</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>log_Kd</t>
         </is>
       </c>
     </row>
@@ -418,1435 +433,1750 @@
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>191.3156713414446</v>
+      </c>
+      <c r="C2">
+        <v>156.1986075375394</v>
+      </c>
+      <c r="D2">
+        <v>17558.53190195259</v>
+      </c>
+      <c r="E2">
+        <v>2.193677157957041</v>
+      </c>
+      <c r="F2">
+        <v>4.24448820100431</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>PFPeA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>17558.53190195259</v>
-      </c>
       <c r="I2">
-        <v>156.1986075375394</v>
-      </c>
-      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>112.4115776623215</v>
       </c>
-      <c r="K2">
-        <v>191.3156713414446</v>
+      <c r="N2">
+        <v>2.050811043047269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>191.3156713414446</v>
+      </c>
+      <c r="C3">
+        <v>137.7462372413145</v>
+      </c>
+      <c r="D3">
+        <v>26784.71705006505</v>
+      </c>
+      <c r="E3">
+        <v>2.139079744237773</v>
+      </c>
+      <c r="F3">
+        <v>4.427887062908077</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>PFPeA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>26784.71705006505</v>
-      </c>
       <c r="I3">
-        <v>137.7462372413145</v>
-      </c>
-      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>194.4497184568572</v>
       </c>
-      <c r="K3">
-        <v>191.3156713414446</v>
+      <c r="N3">
+        <v>2.288807318670304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C4">
+        <v>821.6135377933721</v>
+      </c>
+      <c r="D4">
+        <v>565841.9379998656</v>
+      </c>
+      <c r="E4">
+        <v>2.914667586553828</v>
+      </c>
+      <c r="F4">
+        <v>5.752695132528806</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>565841.9379998656</v>
-      </c>
       <c r="I4">
-        <v>821.6135377933721</v>
-      </c>
-      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>688.6959768452226</v>
       </c>
-      <c r="K4">
-        <v>1953.297413793103</v>
+      <c r="N4">
+        <v>2.838027545974978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C5">
+        <v>832.401510601059</v>
+      </c>
+      <c r="D5">
+        <v>560447.9515960221</v>
+      </c>
+      <c r="E5">
+        <v>2.920332859676433</v>
+      </c>
+      <c r="F5">
+        <v>5.748535286183032</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>560447.9515960221</v>
-      </c>
       <c r="I5">
-        <v>832.401510601059</v>
-      </c>
-      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>673.2904066828697</v>
       </c>
-      <c r="K5">
-        <v>1953.297413793103</v>
+      <c r="N5">
+        <v>2.828202426506599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C6">
+        <v>791.9599099657385</v>
+      </c>
+      <c r="D6">
+        <v>580668.7519136823</v>
+      </c>
+      <c r="E6">
+        <v>2.898703197597913</v>
+      </c>
+      <c r="F6">
+        <v>5.763928455555276</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>580668.7519136823</v>
-      </c>
       <c r="I6">
-        <v>791.9599099657385</v>
-      </c>
-      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>733.204729944983</v>
       </c>
-      <c r="K6">
-        <v>1953.297413793103</v>
+      <c r="N6">
+        <v>2.865225257957364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C7">
+        <v>1003.2942080286</v>
+      </c>
+      <c r="D7">
+        <v>202964.3702050175</v>
+      </c>
+      <c r="E7">
+        <v>3.00142830509153</v>
+      </c>
+      <c r="F7">
+        <v>5.307419805492204</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>202964.3702050175</v>
-      </c>
       <c r="I7">
-        <v>1003.2942080286</v>
-      </c>
-      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>202.2979586454781</v>
       </c>
-      <c r="K7">
-        <v>1409.222948438635</v>
+      <c r="N7">
+        <v>2.305991500400674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C8">
+        <v>1001.911902955944</v>
+      </c>
+      <c r="D8">
+        <v>203655.5227413456</v>
+      </c>
+      <c r="E8">
+        <v>3.00082953615983</v>
+      </c>
+      <c r="F8">
+        <v>5.308896191802669</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>203655.5227413456</v>
-      </c>
       <c r="I8">
-        <v>1001.911902955944</v>
-      </c>
-      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>203.2668961617285</v>
       </c>
-      <c r="K8">
-        <v>1409.222948438635</v>
+      <c r="N8">
+        <v>2.308066655642838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C9">
+        <v>962.2478298141591</v>
+      </c>
+      <c r="D9">
+        <v>223487.5593122381</v>
+      </c>
+      <c r="E9">
+        <v>2.983286940290611</v>
+      </c>
+      <c r="F9">
+        <v>5.34925335264727</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>223487.5593122381</v>
-      </c>
       <c r="I9">
-        <v>962.2478298141591</v>
-      </c>
-      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>232.2557166539941</v>
       </c>
-      <c r="K9">
-        <v>1409.222948438635</v>
+      <c r="N9">
+        <v>2.365966412356659</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C10">
+        <v>1536.59175157575</v>
+      </c>
+      <c r="D10">
+        <v>1146647.733234681</v>
+      </c>
+      <c r="E10">
+        <v>3.186558497565628</v>
+      </c>
+      <c r="F10">
+        <v>6.059430016846413</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1146647.733234681</v>
-      </c>
       <c r="I10">
-        <v>1536.59175157575</v>
-      </c>
-      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>746.2279633213</v>
       </c>
-      <c r="K10">
-        <v>3829.887218045112</v>
+      <c r="N10">
+        <v>2.872871519280785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C11">
+        <v>1386.424364516889</v>
+      </c>
+      <c r="D11">
+        <v>1221731.426764112</v>
+      </c>
+      <c r="E11">
+        <v>3.141896181905992</v>
+      </c>
+      <c r="F11">
+        <v>6.086975745436923</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1221731.426764112</v>
-      </c>
       <c r="I11">
-        <v>1386.424364516889</v>
-      </c>
-      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>881.2102975338539</v>
       </c>
-      <c r="K11">
-        <v>3829.887218045112</v>
+      <c r="N11">
+        <v>2.945079563530931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C12">
+        <v>1249.34458323605</v>
+      </c>
+      <c r="D12">
+        <v>1290271.317404531</v>
+      </c>
+      <c r="E12">
+        <v>3.096682238180716</v>
+      </c>
+      <c r="F12">
+        <v>6.110681043060476</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>CWC</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1290271.317404531</v>
-      </c>
       <c r="I12">
-        <v>1249.34458323605</v>
-      </c>
-      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>1032.758563744258</v>
       </c>
-      <c r="K12">
-        <v>3829.887218045112</v>
+      <c r="N12">
+        <v>3.01399880487976</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>330.2828009689595</v>
+      </c>
+      <c r="C13">
+        <v>204.749</v>
+      </c>
+      <c r="D13">
+        <v>62766.90048447974</v>
+      </c>
+      <c r="E13">
+        <v>2.311221789330906</v>
+      </c>
+      <c r="F13">
+        <v>4.797730683123824</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>PFHxA</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>62766.90048447974</v>
-      </c>
       <c r="I13">
-        <v>204.749</v>
-      </c>
-      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>306.5553457378534</v>
       </c>
-      <c r="K13">
-        <v>330.2828009689595</v>
+      <c r="N13">
+        <v>2.486508893792919</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14">
+        <v>330.2828009689595</v>
+      </c>
+      <c r="C14">
+        <v>229.272</v>
+      </c>
+      <c r="D14">
+        <v>50505.40048447974</v>
+      </c>
+      <c r="E14">
+        <v>2.36035101945736</v>
+      </c>
+      <c r="F14">
+        <v>4.703337819211913</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>PFHxA</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>50505.40048447974</v>
-      </c>
       <c r="I14">
-        <v>229.272</v>
-      </c>
-      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>220.2859506807623</v>
       </c>
-      <c r="K14">
-        <v>330.2828009689595</v>
+      <c r="N14">
+        <v>2.342986799754552</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15">
+        <v>330.2828009689595</v>
+      </c>
+      <c r="C15">
+        <v>178.391</v>
+      </c>
+      <c r="D15">
+        <v>75945.90048447973</v>
+      </c>
+      <c r="E15">
+        <v>2.251372940012452</v>
+      </c>
+      <c r="F15">
+        <v>4.880504335868055</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>PFHxA</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>75945.90048447973</v>
-      </c>
       <c r="I15">
-        <v>178.391</v>
-      </c>
-      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>425.7271974734136</v>
       </c>
-      <c r="K15">
-        <v>330.2828009689595</v>
+      <c r="N15">
+        <v>2.629131395855603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16">
+        <v>117.146164021164</v>
+      </c>
+      <c r="C16">
+        <v>34.148</v>
+      </c>
+      <c r="D16">
+        <v>41499.08201058202</v>
+      </c>
+      <c r="E16">
+        <v>1.533365272749636</v>
+      </c>
+      <c r="F16">
+        <v>4.618038489913342</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>PFHpA</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>41499.08201058202</v>
-      </c>
       <c r="I16">
-        <v>34.148</v>
-      </c>
-      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1215.271231421518</v>
       </c>
-      <c r="K16">
-        <v>117.146164021164</v>
+      <c r="N16">
+        <v>3.084673217163706</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17">
+        <v>117.146164021164</v>
+      </c>
+      <c r="C17">
+        <v>37.619</v>
+      </c>
+      <c r="D17">
+        <v>39763.58201058201</v>
+      </c>
+      <c r="E17">
+        <v>1.575407246816324</v>
+      </c>
+      <c r="F17">
+        <v>4.599485499904334</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>PFHpA</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>39763.58201058201</v>
-      </c>
       <c r="I17">
-        <v>37.619</v>
-      </c>
-      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1057.007948392621</v>
       </c>
-      <c r="K17">
-        <v>117.146164021164</v>
+      <c r="N17">
+        <v>3.024078253088009</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18">
+        <v>117.146164021164</v>
+      </c>
+      <c r="C18">
+        <v>24.711</v>
+      </c>
+      <c r="D18">
+        <v>46217.58201058202</v>
+      </c>
+      <c r="E18">
+        <v>1.392890320703347</v>
+      </c>
+      <c r="F18">
+        <v>4.664807220525806</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>PFHpA</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>46217.58201058202</v>
-      </c>
       <c r="I18">
-        <v>24.711</v>
-      </c>
-      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1870.324228504796</v>
       </c>
-      <c r="K18">
-        <v>117.146164021164</v>
+      <c r="N18">
+        <v>3.27191689982246</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C19">
+        <v>75.196</v>
+      </c>
+      <c r="D19">
+        <v>939050.7068965518</v>
+      </c>
+      <c r="E19">
+        <v>1.876194739206924</v>
+      </c>
+      <c r="F19">
+        <v>5.972689043949595</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>939050.7068965518</v>
-      </c>
       <c r="I19">
-        <v>75.196</v>
-      </c>
-      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>12488.04067897962</v>
       </c>
-      <c r="K19">
-        <v>1953.297413793103</v>
+      <c r="N19">
+        <v>4.09649430474267</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C20">
+        <v>81.173</v>
+      </c>
+      <c r="D20">
+        <v>936062.2068965517</v>
+      </c>
+      <c r="E20">
+        <v>1.909411596963402</v>
+      </c>
+      <c r="F20">
+        <v>5.971304711146437</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>936062.2068965517</v>
-      </c>
       <c r="I20">
-        <v>81.173</v>
-      </c>
-      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <v>11531.69412115545</v>
       </c>
-      <c r="K20">
-        <v>1953.297413793103</v>
+      <c r="N20">
+        <v>4.061893114183035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C21">
+        <v>56.427</v>
+      </c>
+      <c r="D21">
+        <v>948435.2068965518</v>
+      </c>
+      <c r="E21">
+        <v>1.751486961167088</v>
+      </c>
+      <c r="F21">
+        <v>5.977007667066062</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>948435.2068965518</v>
-      </c>
       <c r="I21">
-        <v>56.427</v>
-      </c>
-      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>16808.1806031962</v>
       </c>
-      <c r="K21">
-        <v>1953.297413793103</v>
+      <c r="N21">
+        <v>4.225520705898975</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C22">
+        <v>34.108</v>
+      </c>
+      <c r="D22">
+        <v>687557.4742193177</v>
+      </c>
+      <c r="E22">
+        <v>1.532856254311262</v>
+      </c>
+      <c r="F22">
+        <v>5.837309007510322</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>687557.4742193177</v>
-      </c>
       <c r="I22">
-        <v>34.108</v>
-      </c>
-      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>20158.24657614981</v>
       </c>
-      <c r="K22">
-        <v>1409.222948438635</v>
+      <c r="N22">
+        <v>4.304452753199059</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C23">
+        <v>25.237</v>
+      </c>
+      <c r="D23">
+        <v>691992.9742193175</v>
+      </c>
+      <c r="E23">
+        <v>1.402037727716252</v>
+      </c>
+      <c r="F23">
+        <v>5.84010168510232</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>691992.9742193175</v>
-      </c>
       <c r="I23">
-        <v>25.237</v>
-      </c>
-      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>27419.77945949668</v>
       </c>
-      <c r="K23">
-        <v>1409.222948438635</v>
+      <c r="N23">
+        <v>4.438063957386068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C24">
+        <v>24.249</v>
+      </c>
+      <c r="D24">
+        <v>692486.9742193177</v>
+      </c>
+      <c r="E24">
+        <v>1.384693833518213</v>
+      </c>
+      <c r="F24">
+        <v>5.840411608670959</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>692486.9742193177</v>
-      </c>
       <c r="I24">
-        <v>24.249</v>
-      </c>
-      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>28557.3415076629</v>
       </c>
-      <c r="K24">
-        <v>1409.222948438635</v>
+      <c r="N24">
+        <v>4.455717775152746</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
         <v>10</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C25">
+        <v>23.68</v>
+      </c>
+      <c r="D25">
+        <v>1903103.609022556</v>
+      </c>
+      <c r="E25">
+        <v>1.374381698050882</v>
+      </c>
+      <c r="F25">
+        <v>6.279462432849232</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1903103.609022556</v>
-      </c>
       <c r="I25">
-        <v>23.68</v>
-      </c>
-      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>80367.5510566958</v>
       </c>
-      <c r="K25">
-        <v>3829.887218045112</v>
+      <c r="N25">
+        <v>4.905080734798349</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C26">
+        <v>11.194</v>
+      </c>
+      <c r="D26">
+        <v>1909346.609022556</v>
+      </c>
+      <c r="E26">
+        <v>1.048985302570711</v>
+      </c>
+      <c r="F26">
+        <v>6.280884774240679</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1909346.609022556</v>
-      </c>
       <c r="I26">
-        <v>11.194</v>
-      </c>
-      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <v>170568.7519226868</v>
       </c>
-      <c r="K26">
-        <v>3829.887218045112</v>
+      <c r="N26">
+        <v>5.231899471669968</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C27">
+        <v>15.663</v>
+      </c>
+      <c r="D27">
+        <v>1907112.109022556</v>
+      </c>
+      <c r="E27">
+        <v>1.194874947930378</v>
+      </c>
+      <c r="F27">
+        <v>6.28037622366938</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>ULS</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1907112.109022556</v>
-      </c>
       <c r="I27">
-        <v>15.663</v>
-      </c>
-      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>121759.0569509389</v>
       </c>
-      <c r="K27">
-        <v>3829.887218045112</v>
+      <c r="N27">
+        <v>5.085501275739002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C28">
+        <v>749.425</v>
+      </c>
+      <c r="D28">
+        <v>601936.2068965517</v>
+      </c>
+      <c r="E28">
+        <v>2.874728176589312</v>
+      </c>
+      <c r="F28">
+        <v>5.779550467236488</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>601936.2068965517</v>
-      </c>
       <c r="I28">
-        <v>749.425</v>
-      </c>
-      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>803.1973938640314</v>
       </c>
-      <c r="K28">
-        <v>1953.297413793103</v>
+      <c r="N28">
+        <v>2.904822290647176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C29">
+        <v>308.616</v>
+      </c>
+      <c r="D29">
+        <v>822340.7068965517</v>
+      </c>
+      <c r="E29">
+        <v>2.489418438031671</v>
+      </c>
+      <c r="F29">
+        <v>5.915051788912912</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>822340.7068965517</v>
-      </c>
       <c r="I29">
-        <v>308.616</v>
-      </c>
-      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>2664.608143766207</v>
       </c>
-      <c r="K29">
-        <v>1953.297413793103</v>
+      <c r="N29">
+        <v>3.425633350881241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30">
+        <v>1953.297413793103</v>
+      </c>
+      <c r="C30">
+        <v>676.614</v>
+      </c>
+      <c r="D30">
+        <v>638341.7068965517</v>
+      </c>
+      <c r="E30">
+        <v>2.830340979647415</v>
+      </c>
+      <c r="F30">
+        <v>5.805053220559048</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>PFOA</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>638341.7068965517</v>
-      </c>
       <c r="I30">
-        <v>676.614</v>
-      </c>
-      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>943.4355583782653</v>
       </c>
-      <c r="K30">
-        <v>1953.297413793103</v>
+      <c r="N30">
+        <v>2.974712240911634</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C31">
+        <v>715.497</v>
+      </c>
+      <c r="D31">
+        <v>346862.9742193177</v>
+      </c>
+      <c r="E31">
+        <v>2.854607817150754</v>
+      </c>
+      <c r="F31">
+        <v>5.540157943686279</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>346862.9742193177</v>
-      </c>
       <c r="I31">
-        <v>715.497</v>
-      </c>
-      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>484.7860637002219</v>
       </c>
-      <c r="K31">
-        <v>1409.222948438635</v>
+      <c r="N31">
+        <v>2.685550126535526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C32">
+        <v>260.608</v>
+      </c>
+      <c r="D32">
+        <v>574307.4742193177</v>
+      </c>
+      <c r="E32">
+        <v>2.41598774331259</v>
+      </c>
+      <c r="F32">
+        <v>5.759144468363847</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>574307.4742193177</v>
-      </c>
       <c r="I32">
-        <v>260.608</v>
-      </c>
-      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>2203.721582680952</v>
       </c>
-      <c r="K32">
-        <v>1409.222948438635</v>
+      <c r="N32">
+        <v>3.343156725051258</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
         <v>10</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33">
+        <v>1409.222948438635</v>
+      </c>
+      <c r="C33">
+        <v>666.819</v>
+      </c>
+      <c r="D33">
+        <v>371201.9742193177</v>
+      </c>
+      <c r="E33">
+        <v>2.824007965897414</v>
+      </c>
+      <c r="F33">
+        <v>5.569610277326662</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>PFNA</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>371201.9742193177</v>
-      </c>
       <c r="I33">
-        <v>666.819</v>
-      </c>
-      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>556.6757609176069</v>
       </c>
-      <c r="K33">
-        <v>1409.222948438635</v>
+      <c r="N33">
+        <v>2.745602311429248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C34">
+        <v>1308.957</v>
+      </c>
+      <c r="D34">
+        <v>1260465.109022556</v>
+      </c>
+      <c r="E34">
+        <v>3.116925379958353</v>
+      </c>
+      <c r="F34">
+        <v>6.100530828458561</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1260465.109022556</v>
-      </c>
       <c r="I34">
-        <v>1308.957</v>
-      </c>
-      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34">
         <v>962.9537937629395</v>
       </c>
-      <c r="K34">
-        <v>3829.887218045112</v>
+      <c r="N34">
+        <v>2.983605448500208</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
         <v>10</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C35">
+        <v>184.052</v>
+      </c>
+      <c r="D35">
+        <v>1822917.609022556</v>
+      </c>
+      <c r="E35">
+        <v>2.264940541066818</v>
+      </c>
+      <c r="F35">
+        <v>6.260767040154991</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1822917.609022556</v>
-      </c>
       <c r="I35">
-        <v>184.052</v>
-      </c>
-      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35">
         <v>9904.36185981438</v>
       </c>
-      <c r="K35">
-        <v>3829.887218045112</v>
+      <c r="N35">
+        <v>3.995826499088173</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
         <v>10</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36">
+        <v>3829.887218045112</v>
+      </c>
+      <c r="C36">
+        <v>1191.002</v>
+      </c>
+      <c r="D36">
+        <v>1319442.609022556</v>
+      </c>
+      <c r="E36">
+        <v>3.075912490776005</v>
+      </c>
+      <c r="F36">
+        <v>6.120390504728959</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>PFDA</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>DSL</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>BC_mix</t>
-        </is>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1319442.609022556</v>
-      </c>
       <c r="I36">
-        <v>1191.002</v>
-      </c>
-      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>BC_mix</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36">
         <v>1107.842479712508</v>
       </c>
-      <c r="K36">
-        <v>3829.887218045112</v>
+      <c r="N36">
+        <v>3.044478013952953</v>
       </c>
     </row>
   </sheetData>
